--- a/genshin/456232054914735115_2020-11-11_10-53-23.xlsx
+++ b/genshin/456232054914735115_2020-11-11_10-53-23.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4365785799</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-04 22:26:30</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44290.93506944444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -619,10 +633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-04 15:21:36</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44290.64</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -690,10 +702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-31 23:44:35</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44286.98929398148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -761,10 +771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-08 22:21:18</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44263.93145833333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-06 20:08:48</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44233.83944444444</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-01-21 23:22:37</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44217.97403935185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -962,10 +966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-23 22:22:49</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44188.93251157407</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1029,10 +1031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:56:43</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44177.08105324074</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1108,10 +1108,8 @@
           <t>3790464090</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-08 07:08:23</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44173.29748842592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1183,10 +1181,8 @@
           <t>3706041679</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-14 15:14:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44149.63484953704</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1246,10 +1242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-13 23:16:29</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44148.96978009259</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1313,10 +1307,8 @@
           <t>3695410965</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-13 20:31:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44148.85538194444</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1380,10 +1372,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-13 10:48:05</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44148.45005787037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1456,10 +1446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-13 00:00:41</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44148.00047453704</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1535,10 +1523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-12 23:46:00</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44147.99027777778</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1602,10 +1588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-12 22:05:11</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44147.92026620371</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1669,10 +1653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-12 16:03:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44147.6689699074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1740,10 +1722,8 @@
           <t>3699229288</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-12 15:33:25</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44147.64820601852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1816,10 +1796,8 @@
           <t>3695237382</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-12 15:31:57</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44147.6471875</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1892,10 +1870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-12 14:56:03</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44147.62225694444</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1959,10 +1935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-12 10:55:49</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44147.45542824074</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2030,10 +2004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-12 10:01:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44147.41795138889</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2102,10 +2074,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-12 09:41:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44147.40355324074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2169,10 +2139,8 @@
           <t>3698280915</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-12 08:57:39</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44147.37336805555</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2240,10 +2208,8 @@
           <t>3698216995</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-12 08:23:26</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44147.34960648148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2319,10 +2285,8 @@
           <t>3695257330</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-12 07:29:00</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44147.31180555555</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2398,10 +2362,8 @@
           <t>3695312950</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-12 07:26:08</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44147.30981481481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2477,10 +2439,8 @@
           <t>3698133945</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-12 07:25:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44147.30943287037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2556,10 +2516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-12 03:23:02</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44147.14099537037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2635,10 +2593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-12 02:19:24</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44147.09680555556</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2702,10 +2658,8 @@
           <t>3697967481</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-12 02:09:36</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44147.09</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2770,10 +2724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-12 00:40:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44147.0283912037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2837,10 +2789,8 @@
           <t>3697802751</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-12 00:38:44</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44147.02689814815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2908,10 +2858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-12 00:28:15</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44147.01961805556</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2975,10 +2923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:44:22</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44146.98914351852</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3038,10 +2984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:37:33</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44146.98440972222</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3117,10 +3061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:27:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44146.97773148148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3188,10 +3130,8 @@
           <t>3697539413</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:23:32</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44146.97467592593</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3259,10 +3199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:06:13</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44146.96265046296</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3338,10 +3276,8 @@
           <t>3695365522</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-11 23:03:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44146.9608912037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3409,10 +3345,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-11 22:41:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44146.94577546296</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3480,10 +3414,8 @@
           <t>3697250482</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-11 22:10:31</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44146.92396990741</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3547,10 +3479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:52:32</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44146.91148148148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3626,10 +3556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:44:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44146.90557870371</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3697,10 +3625,8 @@
           <t>3695449313</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:23:24</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44146.89125</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3768,10 +3694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:11:28</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44146.88296296296</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3847,10 +3771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-11 21:00:16</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44146.87518518518</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3914,10 +3836,8 @@
           <t>3696961188</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:54:53</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44146.87144675926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3989,10 +3909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:46:14</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44146.86543981481</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4064,10 +3982,8 @@
           <t>3696812288</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:12:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44146.84228009259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4140,10 +4056,8 @@
           <t>3695226908</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:06:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44146.83760416666</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4215,10 +4129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-11 20:04:55</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44146.83674768519</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4286,10 +4198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:48:38</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44146.82543981481</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4361,10 +4271,8 @@
           <t>3695209802</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:46:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44146.82423611111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4428,10 +4336,8 @@
           <t>3696725826</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:46:03</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44146.82364583333</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4495,10 +4401,8 @@
           <t>3696680711</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:33:13</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44146.81473379629</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4562,10 +4466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-11 19:18:24</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44146.80444444445</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4635,10 +4537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:55:35</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44146.78859953704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4706,10 +4606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:39:13</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44146.7772337963</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4777,10 +4675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:26:16</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44146.76824074074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4856,10 +4752,8 @@
           <t>3696403991</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:20:12</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44146.76402777778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4936,10 +4830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:18:53</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44146.76311342593</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5015,10 +4907,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:17:39</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44146.76225694444</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5086,10 +4976,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:16:33</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44146.76149305556</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5165,10 +5053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:13:57</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44146.7596875</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5236,10 +5122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:13:20</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44146.75925925926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5307,10 +5191,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:13:01</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44146.75903935185</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5378,10 +5260,8 @@
           <t>3695410965</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:09:39</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44146.75670138889</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5453,10 +5333,8 @@
           <t>3696363440</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:08:42</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44146.75604166667</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5520,10 +5398,8 @@
           <t>3695594764</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:06:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44146.75466435185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5589,10 +5465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-11 18:03:18</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44146.75229166666</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5656,10 +5530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:55:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44146.7468287037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5731,10 +5603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:50:47</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44146.74359953704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5798,10 +5668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:46:03</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44146.7403125</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5877,10 +5745,8 @@
           <t>3695609026</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:43:50</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44146.73877314815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5952,10 +5818,8 @@
           <t>3696246350</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:31:38</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44146.73030092593</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6019,10 +5883,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:30:53</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44146.7297800926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6086,10 +5948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:28:31</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44146.72813657407</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6153,10 +6013,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:24:43</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44146.72549768518</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6232,10 +6090,8 @@
           <t>3696167058</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:05:07</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44146.71188657408</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6307,10 +6163,8 @@
           <t>3696158377</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:01:18</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44146.70923611111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6382,10 +6236,8 @@
           <t>3696157722</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-11 17:00:33</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44146.70871527777</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6453,10 +6305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:48:32</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44146.70037037037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6524,10 +6374,8 @@
           <t>3696120865</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:46:30</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44146.69895833333</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6599,10 +6447,8 @@
           <t>3696100665</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:39:56</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44146.69439814815</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6670,10 +6516,8 @@
           <t>3696086203</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:34:27</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44146.69059027778</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6751,10 +6595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:33:42</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44146.69006944444</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6822,10 +6664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:33:05</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44146.6896412037</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6901,10 +6741,8 @@
           <t>3695905000</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:32:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44146.68920138889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6968,10 +6806,8 @@
           <t>3695609026</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:26:08</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44146.68481481481</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7043,10 +6879,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:25:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44146.68457175926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7132,10 +6966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:25:07</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44146.6841087963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7203,10 +7035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:24:42</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44146.68381944444</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7282,10 +7112,8 @@
           <t>3695243444</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:17:21</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44146.67871527778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7357,10 +7185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:11:28</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44146.67462962963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7432,10 +7258,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-11 16:00:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44146.66702546296</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7511,10 +7335,8 @@
           <t>3696003515</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:59:08</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44146.66606481482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7582,10 +7404,8 @@
           <t>3695978893</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:47:06</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44146.65770833333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7657,10 +7477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:44:15</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44146.65572916667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7728,10 +7546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:43:32</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44146.65523148148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7799,10 +7615,8 @@
           <t>3695410965</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:38:04</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44146.65143518519</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7870,10 +7684,8 @@
           <t>3695945842</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:30:15</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44146.64600694444</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7949,10 +7761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:30:11</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44146.64596064815</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8012,10 +7822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:28:02</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44146.6444675926</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8091,10 +7899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:25:19</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44146.64258101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8166,10 +7972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:21:50</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44146.64016203704</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8237,10 +8041,8 @@
           <t>3695921053</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:21:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44146.63969907408</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8316,10 +8118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:19:17</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44146.63839120371</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8387,10 +8187,8 @@
           <t>3695905000</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:15:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44146.63594907407</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8454,10 +8252,8 @@
           <t>3695903759</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:14:01</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44146.63473379629</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8521,10 +8317,8 @@
           <t>3695340521</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:10:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44146.63244212963</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8592,10 +8386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:04:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44146.62787037037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8671,10 +8463,8 @@
           <t>3695616242</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:03:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44146.62724537037</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8746,10 +8536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:02:53</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44146.62700231482</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8813,10 +8601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:02:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44146.62685185186</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8888,10 +8674,8 @@
           <t>3695877100</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:00:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44146.625625</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8967,10 +8751,8 @@
           <t>3695616242</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-11 15:00:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44146.62540509259</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9042,10 +8824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:55:56</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44146.62217592593</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9121,10 +8901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:55:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44146.62202546297</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9188,10 +8966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:53:45</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44146.62065972222</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9263,10 +9039,8 @@
           <t>3695865012</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:52:43</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44146.61994212963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9330,10 +9104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:48:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44146.61694444445</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9397,10 +9169,8 @@
           <t>3695843304</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:44:54</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44146.61451388889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9464,10 +9234,8 @@
           <t>3695839166</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:44:14</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44146.61405092593</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9543,10 +9311,8 @@
           <t>3695842573</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:43:53</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44146.61380787037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9618,10 +9384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:43:08</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44146.61328703703</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9693,10 +9457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:36:42</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44146.60881944445</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9764,10 +9526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:25:05</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44146.60075231481</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9835,10 +9595,8 @@
           <t>3695805417</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:24:46</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44146.60053240741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9914,10 +9672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:22:52</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44146.59921296296</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9993,10 +9749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:22:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44146.59898148148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10060,10 +9814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:18:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44146.59623842593</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10127,10 +9879,8 @@
           <t>3695221628</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:05:55</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44146.58744212963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10194,10 +9944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:03:29</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44146.58575231482</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10265,10 +10013,8 @@
           <t>3695756520</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:01:27</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44146.58434027778</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10336,10 +10082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-11 14:00:28</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44146.58365740741</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10404,10 +10148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:59:51</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44146.58322916667</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10483,10 +10225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:53:26</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44146.57877314815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10562,10 +10302,8 @@
           <t>3695594764</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:47:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44146.57466435185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10629,10 +10367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:45:11</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44146.57304398148</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10696,10 +10432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:44:59</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44146.57290509259</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10763,10 +10497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:41:05</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44146.57019675926</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10830,10 +10562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:36:44</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44146.56717592593</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10905,10 +10635,8 @@
           <t>3695685835</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:35:36</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44146.56638888889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10980,10 +10708,8 @@
           <t>3695687772</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:34:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44146.56582175926</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11047,10 +10773,8 @@
           <t>3695685835</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:32:28</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44146.56421296296</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11122,10 +10846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:30:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44146.56296296296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11197,10 +10919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:29:41</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44146.56228009259</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11272,10 +10992,8 @@
           <t>3695249773</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:28:17</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44146.56130787037</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11335,10 +11053,8 @@
           <t>3695553965</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:28:08</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44146.56120370371</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11406,10 +11122,8 @@
           <t>3695553965</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:27:26</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44146.56071759259</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11477,10 +11191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:27:08</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44146.56050925926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11556,10 +11268,8 @@
           <t>3695670754</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:26:58</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44146.56039351852</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11627,10 +11337,8 @@
           <t>3695661105</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:23:54</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44146.55826388889</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11698,10 +11406,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:23:33</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44146.55802083333</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11773,10 +11479,8 @@
           <t>3695553965</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:22:27</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44146.55725694444</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11844,10 +11548,8 @@
           <t>3695656429</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:22:26</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44146.55724537037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11919,10 +11621,8 @@
           <t>3695649607</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:22:18</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44146.55715277778</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11990,10 +11690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:22:08</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44146.55703703704</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12065,10 +11763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:21:58</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44146.55692129629</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12144,10 +11840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:21:50</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44146.5568287037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12215,10 +11909,8 @@
           <t>3695653014</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:20:36</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44146.55597222222</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12278,10 +11970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:20:10</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44146.55567129629</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12357,10 +12047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:17:14</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44146.55363425926</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -12424,10 +12112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:15:48</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44146.55263888889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12491,10 +12177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:15:30</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44146.55243055556</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12558,10 +12242,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:15:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44146.55232638889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12629,10 +12311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:12:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44146.55037037037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12692,10 +12372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:12:27</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44146.5503125</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12763,10 +12441,8 @@
           <t>3695594764</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:12:02</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44146.55002314815</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12830,10 +12506,8 @@
           <t>3695594764</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:10:17</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44146.54880787037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12897,10 +12571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:10:04</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44146.54865740741</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12976,10 +12648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:09:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44146.54837962963</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13039,10 +12709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:08:48</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44146.54777777778</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13106,10 +12774,8 @@
           <t>3695616242</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:08:33</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44146.54760416667</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13181,10 +12847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:07:27</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44146.54684027778</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13256,10 +12920,8 @@
           <t>3695604826</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:07:14</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44146.54668981482</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13331,10 +12993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:06:38</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44146.54627314815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13407,10 +13067,8 @@
           <t>3695609026</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:06:24</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44146.54611111111</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13482,10 +13140,8 @@
           <t>3695607006</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:04:30</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44146.54479166667</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13553,10 +13209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:03:24</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44146.54402777777</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13620,10 +13274,8 @@
           <t>3695594764</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:02:18</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44146.54326388889</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13687,10 +13339,8 @@
           <t>3695588520</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-11 13:01:02</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44146.54238425926</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13758,10 +13408,8 @@
           <t>3695580565</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:57:13</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44146.53973379629</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13834,10 +13482,8 @@
           <t>3695578593</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:56:32</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44146.53925925926</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13913,10 +13559,8 @@
           <t>3695566708</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:53:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44146.53733796296</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13992,10 +13636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:53:26</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44146.53710648148</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14071,10 +13713,8 @@
           <t>3695553965</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:51:20</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44146.53564814815</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14142,10 +13782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:50:56</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44146.53537037037</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14209,10 +13847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:49:29</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44146.53436342593</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14276,10 +13912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:47:12</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44146.53277777778</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14351,10 +13985,8 @@
           <t>3695546235</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:45:30</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44146.53159722222</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14418,10 +14050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:42:33</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44146.52954861111</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14493,10 +14123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:40:07</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44146.5278587963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14572,10 +14200,8 @@
           <t>3695518469</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:38:47</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44146.52693287037</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14639,10 +14265,8 @@
           <t>3695422052</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:38:11</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44146.5265162037</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14710,10 +14334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:37:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44146.52607638889</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14781,10 +14403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:34:53</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44146.52422453704</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14856,10 +14476,8 @@
           <t>3695502145</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:33:24</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44146.52319444445</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14935,10 +14553,8 @@
           <t>3695422052</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:31:16</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44146.52171296296</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15017,10 +14633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:30:36</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44146.52125</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15084,10 +14698,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:30:32</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44146.52120370371</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15151,10 +14763,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:30:24</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44146.52111111111</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15233,10 +14843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:28:31</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44146.51980324074</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15296,10 +14904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:23:56</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44146.51662037037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15363,10 +14969,8 @@
           <t>3695465591</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:23:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44146.51600694445</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15434,10 +15038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:22:54</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44146.51590277778</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15501,10 +15103,8 @@
           <t>3695449313</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:21:54</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44146.51520833333</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15574,10 +15174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:21:35</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44146.51498842592</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15645,10 +15243,8 @@
           <t>3695452636</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:20:35</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44146.51429398148</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15716,10 +15312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:20:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44146.51429398148</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15787,10 +15381,8 @@
           <t>3695456799</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:20:17</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44146.51408564814</v>
       </c>
       <c r="I213" t="n">
         <v>6</v>
@@ -15850,10 +15442,8 @@
           <t>3695451718</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:19:48</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44146.51375</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15929,10 +15519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:19:30</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44146.51354166667</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15996,10 +15584,8 @@
           <t>3695409819</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:19:10</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44146.51331018518</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16067,10 +15653,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:18:36</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44146.51291666667</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16138,10 +15722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:17:27</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44146.51211805556</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16209,10 +15791,8 @@
           <t>3695438239</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:17:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44146.51193287037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16272,10 +15852,8 @@
           <t>3695438239</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:16:45</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44146.51163194444</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16335,10 +15913,8 @@
           <t>3695437697</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:16:18</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44146.51131944444</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16414,10 +15990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:16:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44146.51119212963</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16481,10 +16055,8 @@
           <t>3695440546</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:14:41</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44146.51019675926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16560,10 +16132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:14:38</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44146.51016203704</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16635,10 +16205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:13:39</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44146.50947916666</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16706,10 +16274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:11:19</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44146.5078587963</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16781,10 +16347,8 @@
           <t>3695422052</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:11:13</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44146.50778935185</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16852,10 +16416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:10:43</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44146.50744212963</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -16919,10 +16481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:09:49</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44146.50681712963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16990,10 +16550,8 @@
           <t>3695420337</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:09:37</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44146.50667824074</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17061,10 +16619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:09:36</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44146.50666666667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17132,10 +16688,8 @@
           <t>3695409819</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:09:13</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44146.50640046296</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17211,10 +16765,8 @@
           <t>3695365522</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:08:02</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44146.50557870371</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17278,10 +16830,8 @@
           <t>3695403683</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:07:42</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44146.50534722222</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17349,10 +16899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:07:31</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44146.50521990741</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17416,10 +16964,8 @@
           <t>3695412858</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:07:17</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44146.50505787037</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17487,10 +17033,8 @@
           <t>3695254179</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:06:21</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44146.50440972222</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17558,10 +17102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:06:14</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44146.5043287037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17634,10 +17176,8 @@
           <t>3695406284</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:05:52</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44146.50407407407</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17709,10 +17249,8 @@
           <t>3695410965</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:05:33</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44146.50385416667</v>
       </c>
       <c r="I240" t="n">
         <v>6</v>
@@ -17784,10 +17322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:05:15</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44146.50364583333</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17859,10 +17395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:05:10</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44146.50358796296</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17942,10 +17476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:05:08</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44146.50356481481</v>
       </c>
       <c r="I243" t="n">
         <v>3</v>
@@ -18013,10 +17545,8 @@
           <t>3695393998</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:03:40</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44146.50254629629</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18084,10 +17614,8 @@
           <t>3695393874</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:03:33</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44146.50246527778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18159,10 +17687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:03:32</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44146.5024537037</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18238,10 +17764,8 @@
           <t>3695388653</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:02:57</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44146.50204861111</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18317,10 +17841,8 @@
           <t>3695392961</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:02:41</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44146.50186342592</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18384,10 +17906,8 @@
           <t>3695221628</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:02:37</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44146.50181712963</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18455,10 +17975,8 @@
           <t>3695397724</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:02:29</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44146.50172453704</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18526,10 +18044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:02:16</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44146.50157407407</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18601,10 +18117,8 @@
           <t>3695243444</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:00:41</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44146.50047453704</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18672,10 +18186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-11 12:00:09</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44146.50010416667</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18739,10 +18251,8 @@
           <t>3695374660</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:58:59</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44146.49929398148</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18814,10 +18324,8 @@
           <t>3695383684</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:58:39</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44146.4990625</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18885,10 +18393,8 @@
           <t>3695378335</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:58:12</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44146.49875</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18956,10 +18462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:56:47</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44146.49776620371</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19027,10 +18531,8 @@
           <t>3695376933</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:56:44</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44146.49773148148</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19094,10 +18596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:56:20</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44146.49745370371</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19165,10 +18665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:55:54</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44146.49715277777</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19236,10 +18734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:55:54</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44146.49715277777</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19303,10 +18799,8 @@
           <t>3695375740</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:55:28</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44146.49685185185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19378,10 +18872,8 @@
           <t>3695309089</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:55:21</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44146.49677083334</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19445,10 +18937,8 @@
           <t>3695369338</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:54:10</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44146.49594907407</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19516,10 +19006,8 @@
           <t>3695255394</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:53:43</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44146.49563657407</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19587,10 +19075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:52:48</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44146.495</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19654,10 +19140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:52:45</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44146.49496527778</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19729,10 +19213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:52:22</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44146.49469907407</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19796,10 +19278,8 @@
           <t>3695366970</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:51:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44146.49417824074</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19875,10 +19355,8 @@
           <t>3695361399</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:50:51</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44146.49364583333</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19946,10 +19424,8 @@
           <t>3695260577</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:50:49</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44146.49362268519</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20026,10 +19502,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:50:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44146.49357638889</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20097,10 +19571,8 @@
           <t>3695356792</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:50:36</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44146.49347222222</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20176,10 +19648,8 @@
           <t>3695365522</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:50:03</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44146.49309027778</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20249,10 +19719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:49:12</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44146.4925</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20322,10 +19790,8 @@
           <t>3695349508</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:48:45</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44146.4921875</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20389,10 +19855,8 @@
           <t>3695344574</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:48:05</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44146.49172453704</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20460,10 +19924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:47:09</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44146.49107638889</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20539,10 +20001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:47:03</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44146.49100694444</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20610,10 +20070,8 @@
           <t>3695333910</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:46:01</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44146.49028935185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20681,10 +20139,8 @@
           <t>3695255305</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:45:41</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44146.49005787037</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20761,10 +20217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:45:39</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44146.49003472222</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20840,10 +20294,8 @@
           <t>3695309089</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:44:26</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44146.48918981481</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20920,10 +20372,8 @@
           <t>3695324146</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:43:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44146.48880787037</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20991,10 +20441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:43:39</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44146.48864583333</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21066,10 +20514,8 @@
           <t>3695340521</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:43:30</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44146.48854166667</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21133,10 +20579,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:43:04</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44146.48824074074</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21200,10 +20644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:43:00</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44146.48819444444</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21273,10 +20715,8 @@
           <t>3695333910</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:42:28</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44146.48782407407</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21340,10 +20780,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:42:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44146.48767361111</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21419,10 +20857,8 @@
           <t>3695329079</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:41:53</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44146.48741898148</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21490,10 +20926,8 @@
           <t>3695245708</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:41:19</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44146.48702546296</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21553,10 +20987,8 @@
           <t>3695336560</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:40:00</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44146.48611111111</v>
       </c>
       <c r="I293" t="n">
         <v>2</v>
@@ -21620,10 +21052,8 @@
           <t>3695327364</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:39:51</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44146.48600694445</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21695,10 +21125,8 @@
           <t>3695336385</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:39:49</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44146.48598379629</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21762,10 +21190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:39:06</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44146.48548611111</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -21833,10 +21259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:38:40</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44146.48518518519</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21900,10 +21324,8 @@
           <t>3695326267</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:38:34</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44146.48511574074</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21971,10 +21393,8 @@
           <t>3695324443</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:37:35</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44146.48443287037</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22046,10 +21466,8 @@
           <t>3695324146</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:37:15</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44146.48420138889</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22121,10 +21539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:36:40</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44146.4837962963</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22192,10 +21608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:35:41</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44146.48311342593</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22259,10 +21673,8 @@
           <t>3695313493</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:35:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44146.4828587963</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22334,10 +21746,8 @@
           <t>3695312950</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:34:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44146.48238425926</v>
       </c>
       <c r="I304" t="n">
         <v>5</v>
@@ -22409,10 +21819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:34:32</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44146.48231481481</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22476,10 +21884,8 @@
           <t>3695311718</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:33:10</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44146.48136574074</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22547,10 +21953,8 @@
           <t>3695304777</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:32:08</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44146.48064814815</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22626,10 +22030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:31:27</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44146.48017361111</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22701,10 +22103,8 @@
           <t>3695309089</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:31:26</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44146.48016203703</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22768,10 +22168,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:30:59</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44146.47984953703</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22847,10 +22245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:30:18</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44146.479375</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -22918,10 +22314,8 @@
           <t>3695298359</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:29:25</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44146.47876157407</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -22993,10 +22387,8 @@
           <t>3695297835</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:28:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44146.47832175926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23072,10 +22464,8 @@
           <t>3695306372</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:28:25</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44146.47806712963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23139,10 +22529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:28:16</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44146.47796296296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23206,10 +22594,8 @@
           <t>3695305737</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:27:43</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44146.47758101852</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23277,10 +22663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:26:54</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44146.47701388889</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23348,10 +22732,8 @@
           <t>3695289890</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:26:31</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44146.47674768518</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23419,10 +22801,8 @@
           <t>3695295612</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:26:12</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44146.47652777778</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23486,10 +22866,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:26:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44146.47640046296</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23553,10 +22931,8 @@
           <t>3695294319</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:26:01</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44146.47640046296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23624,10 +23000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:25:57</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44146.47635416667</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23695,10 +23069,8 @@
           <t>3695295382</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:25:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44146.47633101852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23766,10 +23138,8 @@
           <t>3695288653</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:25:07</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44146.47577546296</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23841,10 +23211,8 @@
           <t>3695284300</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:24:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44146.47545138889</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23912,10 +23280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:23:42</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44146.47479166667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -23979,10 +23345,8 @@
           <t>3695283255</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:23:25</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44146.47459490741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24046,10 +23410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:22:54</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44146.47423611111</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24113,10 +23475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:22:36</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44146.47402777777</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24180,10 +23540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:22:33</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44146.47399305556</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24255,10 +23613,8 @@
           <t>3695282508</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:22:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44146.47392361111</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24318,10 +23674,8 @@
           <t>3695281451</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:21:09</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44146.47302083333</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24393,10 +23747,8 @@
           <t>3695255305</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:20:54</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44146.47284722222</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24472,10 +23824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:20:21</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44146.47246527778</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24535,10 +23885,8 @@
           <t>3695280663</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:20:11</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44146.47234953703</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24602,10 +23950,8 @@
           <t>3695274417</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:20:03</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44146.47225694444</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24681,10 +24027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:19:52</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44146.47212962963</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24748,10 +24092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:19:33</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44146.47190972222</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24819,10 +24161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:19:12</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44146.47166666666</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24894,10 +24234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:19:03</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44146.4715625</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -24961,10 +24299,8 @@
           <t>3695251640</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:18:44</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44146.47134259259</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25032,10 +24368,8 @@
           <t>3695273148</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:18:35</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44146.47123842593</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25111,10 +24445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:18:29</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44146.47116898148</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25182,10 +24514,8 @@
           <t>3695272766</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:18:06</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44146.47090277778</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25261,10 +24591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:18:00</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44146.47083333333</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25328,10 +24656,8 @@
           <t>3695214415</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:17:52</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44146.47074074074</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25395,10 +24721,8 @@
           <t>3695272526</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:17:49</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44146.47070601852</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25475,10 +24799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:17:40</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44146.47060185186</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25542,10 +24864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:16:48</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44146.47</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25621,10 +24941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:16:21</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44146.4696875</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25700,10 +25018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:16:01</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44146.46945601852</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25779,10 +25095,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:54</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44146.469375</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25858,10 +25172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:39</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44146.46920138889</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25937,10 +25249,8 @@
           <t>3695266902</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:38</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44146.46918981482</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26012,10 +25322,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:25</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44146.46903935185</v>
       </c>
       <c r="I355" t="n">
         <v>10</v>
@@ -26083,10 +25391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:20</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44146.46898148148</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26158,10 +25464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:13</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44146.46890046296</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26233,10 +25537,8 @@
           <t>3695255305</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:11</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44146.46887731482</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26313,10 +25615,8 @@
           <t>3695214415</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:15:04</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44146.4687962963</v>
       </c>
       <c r="I359" t="n">
         <v>5</v>
@@ -26388,10 +25688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:14:50</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44146.46863425926</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26467,10 +25765,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:14:47</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44146.46859953704</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26546,10 +25842,8 @@
           <t>3695255536</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:14:40</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44146.46851851852</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26626,10 +25920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:14:24</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44146.46833333333</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26701,10 +25993,8 @@
           <t>3695254179</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:14:07</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44146.46813657408</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26772,10 +26062,8 @@
           <t>3695258738</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:13:12</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44146.4675</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26842,10 +26130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:13:08</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44146.46745370371</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -26916,10 +26202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:13:02</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44146.46738425926</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -26983,10 +26267,8 @@
           <t>3695263118</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:12:48</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44146.46722222222</v>
       </c>
       <c r="I368" t="n">
         <v>4</v>
@@ -27050,10 +26332,8 @@
           <t>3695243444</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:12:30</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44146.46701388889</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27121,10 +26401,8 @@
           <t>3695254179</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:12:30</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44146.46701388889</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27192,10 +26470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:56</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44146.46662037037</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27267,10 +26543,8 @@
           <t>3695257330</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:39</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44146.46642361111</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27342,10 +26616,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:30</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44146.46631944444</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27409,10 +26681,8 @@
           <t>3695249667</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:18</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44146.46618055556</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27488,10 +26758,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:06</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44146.46604166667</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27567,10 +26835,8 @@
           <t>3695248474</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:11:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44146.46604166667</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27638,10 +26904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:10:54</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44146.46590277777</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27709,10 +26973,8 @@
           <t>3695261176</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:10:39</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44146.46572916667</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27780,10 +27042,8 @@
           <t>3695255394</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:10:37</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44146.46570601852</v>
       </c>
       <c r="I379" t="n">
         <v>2</v>
@@ -27843,10 +27103,8 @@
           <t>3695260871</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:10:16</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44146.46546296297</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27910,10 +27168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:10:07</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44146.4653587963</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27989,10 +27245,8 @@
           <t>3695243444</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:57</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44146.46524305556</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28064,10 +27318,8 @@
           <t>3695260577</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:54</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44146.46520833333</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28143,10 +27395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:35</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44146.46498842593</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28214,10 +27464,8 @@
           <t>3695255536</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:34</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44146.46497685185</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28285,10 +27533,8 @@
           <t>3695255492</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:31</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44146.46494212963</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28364,10 +27610,8 @@
           <t>3695251640</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:26</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44146.46488425926</v>
       </c>
       <c r="I387" t="n">
         <v>12</v>
@@ -28443,10 +27687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:25</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44146.46487268519</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28510,10 +27752,8 @@
           <t>3695255394</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:24</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44146.46486111111</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28581,10 +27821,8 @@
           <t>3695255357</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:21</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44146.46482638889</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28644,10 +27882,8 @@
           <t>3695255305</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:17</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44146.4647800926</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28723,10 +27959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:08</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44146.46467592593</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28794,10 +28028,8 @@
           <t>3695255175</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:07</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44146.46466435185</v>
       </c>
       <c r="I393" t="n">
         <v>7</v>
@@ -28861,10 +28093,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:04</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44146.46462962963</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -28940,10 +28170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:01</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44146.4645949074</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29007,10 +28235,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:09:00</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44146.46458333333</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29078,10 +28304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:55</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44146.46452546296</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29153,10 +28377,8 @@
           <t>3695249773</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:54</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44146.46451388889</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29232,10 +28454,8 @@
           <t>3695251171</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:52</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44146.46449074074</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29311,10 +28531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:48</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44146.46444444444</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29386,10 +28604,8 @@
           <t>3695249667</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:46</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44146.4644212963</v>
       </c>
       <c r="I401" t="n">
         <v>5</v>
@@ -29457,10 +28673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:42</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44146.464375</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29536,10 +28750,8 @@
           <t>3695248168</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:23</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44146.4641550926</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29611,10 +28823,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44146.46408564815</v>
       </c>
       <c r="I404" t="n">
         <v>2</v>
@@ -29674,10 +28884,8 @@
           <t>3695235215</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:02</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44146.46391203703</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -29745,10 +28953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:08:00</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44146.46388888889</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29816,10 +29022,8 @@
           <t>3695248968</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:53</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44146.46380787037</v>
       </c>
       <c r="I407" t="n">
         <v>8</v>
@@ -29895,10 +29099,8 @@
           <t>3695241959</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:36</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44146.46361111111</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29966,10 +29168,8 @@
           <t>3695250014</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:27</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44146.46350694444</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30045,10 +29245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:26</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44146.46349537037</v>
       </c>
       <c r="I410" t="n">
         <v>30</v>
@@ -30116,10 +29314,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:15</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44146.46336805556</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30191,10 +29387,8 @@
           <t>3695248474</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:11</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44146.46332175926</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30254,10 +29448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:08</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44146.46328703704</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30325,10 +29517,8 @@
           <t>3695241959</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:07</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44146.46327546296</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30392,10 +29582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:07:03</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44146.46322916666</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30463,10 +29651,8 @@
           <t>3695239623</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:58</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44146.46317129629</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30534,10 +29720,8 @@
           <t>3695243444</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:57</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44146.46315972223</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30597,10 +29781,8 @@
           <t>3695248168</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:48</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44146.46305555556</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -30672,10 +29854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:40</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44146.46296296296</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30747,10 +29927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:38</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44146.46293981482</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30818,10 +29996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:22</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44146.46275462963</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30885,10 +30061,8 @@
           <t>3695236761</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:20</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44146.46273148148</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30952,10 +30126,8 @@
           <t>3695241959</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:03</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44146.46253472222</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31031,10 +30203,8 @@
           <t>3695238823</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:06:01</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44146.46251157407</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31102,10 +30272,8 @@
           <t>3695237558</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:45</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44146.46232638889</v>
       </c>
       <c r="I425" t="n">
         <v>1</v>
@@ -31177,10 +30345,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:43</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44146.46230324074</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31244,10 +30410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:41</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44146.46228009259</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31311,10 +30475,8 @@
           <t>3695238432</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:34</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44146.46219907407</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31383,10 +30545,8 @@
           <t>3695246948</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:17</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44146.46200231482</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31462,10 +30622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:14</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44146.46196759259</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31541,10 +30699,8 @@
           <t>3695241959</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:05</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44146.46186342592</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31612,10 +30768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:01</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44146.46181712963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31679,10 +30833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:05:01</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44146.46181712963</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31750,10 +30902,8 @@
           <t>3695241765</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:51</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44146.46170138889</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31821,10 +30971,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:51</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44146.46170138889</v>
       </c>
       <c r="I435" t="n">
         <v>8</v>
@@ -31900,10 +31048,8 @@
           <t>3695237558</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:29</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44146.46144675926</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31967,10 +31113,8 @@
           <t>3695237382</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:16</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44146.46129629629</v>
       </c>
       <c r="I437" t="n">
         <v>3</v>
@@ -32038,10 +31182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:13</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44146.46126157408</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32117,10 +31259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:13</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44146.46126157408</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32192,10 +31332,8 @@
           <t>3695241288</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:13</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44146.46126157408</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32267,10 +31405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:10</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44146.46122685185</v>
       </c>
       <c r="I441" t="n">
         <v>14</v>
@@ -32342,10 +31478,8 @@
           <t>3695241185</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:04:05</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44146.46116898148</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32413,10 +31547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:58</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44146.46108796296</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32480,10 +31612,8 @@
           <t>3695241024</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:53</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44146.46103009259</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32559,10 +31689,8 @@
           <t>3695235982</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:50</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44146.46099537037</v>
       </c>
       <c r="I445" t="n">
         <v>10</v>
@@ -32630,10 +31758,8 @@
           <t>3695245708</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:46</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44146.46094907408</v>
       </c>
       <c r="I446" t="n">
         <v>4</v>
@@ -32693,10 +31819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:40</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44146.46087962963</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32764,10 +31888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:40</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44146.46087962963</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32839,10 +31961,8 @@
           <t>3695245569</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:37</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44146.46084490741</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32910,10 +32030,8 @@
           <t>3695245479</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:31</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44146.46077546296</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32981,10 +32099,8 @@
           <t>3695236761</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:29</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44146.46075231482</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33052,10 +32168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:27</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44146.46072916667</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33132,10 +32246,8 @@
           <t>3695236679</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:23</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44146.46068287037</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33195,10 +32307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:20</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44146.46064814815</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33266,10 +32376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:03:09</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44146.46052083333</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33337,10 +32445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:56</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44146.46037037037</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33404,10 +32510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:47</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44146.46026620371</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33475,10 +32579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44146.46013888889</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33546,10 +32648,8 @@
           <t>3695234678</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:33</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44146.46010416667</v>
       </c>
       <c r="I459" t="n">
         <v>15</v>
@@ -33613,10 +32713,8 @@
           <t>3695235982</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:32</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44146.46009259259</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33692,10 +32790,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:32</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44146.46009259259</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33763,10 +32859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44146.46003472222</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33842,10 +32936,8 @@
           <t>3695226908</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:22</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44146.45997685185</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33913,10 +33005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:20</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44146.45995370371</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -33988,10 +33078,8 @@
           <t>3695235791</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:19</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44146.45994212963</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34067,10 +33155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:14</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44146.45988425926</v>
       </c>
       <c r="I466" t="n">
         <v>3</v>
@@ -34142,10 +33228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:02:04</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44146.45976851852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34209,10 +33293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:58</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44146.45969907408</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34284,10 +33366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:55</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44146.45966435185</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34355,10 +33435,8 @@
           <t>3695229388</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:51</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44146.45961805555</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34430,10 +33508,8 @@
           <t>3695235253</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44146.45951388889</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34509,10 +33585,8 @@
           <t>3695229250</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:42</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44146.45951388889</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34576,10 +33650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:41</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44146.45950231481</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34647,10 +33719,8 @@
           <t>3695235215</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:39</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44146.45947916667</v>
       </c>
       <c r="I474" t="n">
         <v>4</v>
@@ -34718,10 +33788,8 @@
           <t>3695233726</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:25</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44146.45931712963</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34785,10 +33853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:21</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44146.45927083334</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34859,10 +33925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:14</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44146.45918981481</v>
       </c>
       <c r="I477" t="n">
         <v>11</v>
@@ -34938,10 +34002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:14</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44146.45918981481</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35009,10 +34071,8 @@
           <t>3695224835</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:12</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44146.45916666667</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35072,10 +34132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:10</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44146.45914351852</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35149,10 +34207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:01:09</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44146.45913194444</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35220,10 +34276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:58</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44146.45900462963</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35295,10 +34349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:54</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44146.45895833334</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35362,10 +34414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:48</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44146.45888888889</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35437,10 +34487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:35</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44146.45873842593</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35512,10 +34560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:33</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44146.45871527777</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35583,10 +34629,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:30</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44146.45868055556</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35654,10 +34698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:26</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44146.45863425926</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35733,10 +34775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:26</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44146.45863425926</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35804,10 +34844,8 @@
           <t>3695232685</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:11</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44146.45846064815</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35879,10 +34917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:10</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44146.45844907407</v>
       </c>
       <c r="I491" t="n">
         <v>45</v>
@@ -35946,10 +34982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:07</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44146.45841435185</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36021,10 +35055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:06</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44146.45840277777</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36088,10 +35120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:02</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44146.45835648148</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36155,10 +35185,8 @@
           <t>3695231535</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-11 11:00:02</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44146.45835648148</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36222,10 +35250,8 @@
           <t>3695227785</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:58</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44146.45831018518</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36297,10 +35323,8 @@
           <t>3695227733</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:55</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44146.45827546297</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36376,10 +35400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:36</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44146.45805555556</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36443,10 +35465,8 @@
           <t>3695227500</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:36</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44146.45805555556</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36518,10 +35538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:35</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44146.45804398148</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36593,10 +35611,8 @@
           <t>3695223462</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:30</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44146.45798611111</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36672,10 +35688,8 @@
           <t>3695227413</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:29</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44146.45797453704</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36743,10 +35757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:28</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44146.45796296297</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36814,10 +35826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:14</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44146.45780092593</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36889,10 +35899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:08</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44146.45773148148</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -36956,10 +35964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:02</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44146.45766203704</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37027,10 +36033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:59:00</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44146.45763888889</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37106,10 +36110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:57</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44146.45760416667</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37173,10 +36175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:55</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44146.45758101852</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37236,10 +36236,8 @@
           <t>3695226906</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:51</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44146.45753472222</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37303,10 +36301,8 @@
           <t>3695226908</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:51</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44146.45753472222</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37378,10 +36374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:46</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44146.45747685185</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37449,10 +36443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:43</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44146.45744212963</v>
       </c>
       <c r="I513" t="n">
         <v>3</v>
@@ -37524,10 +36516,8 @@
           <t>3695222839</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:42</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44146.45743055556</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37591,10 +36581,8 @@
           <t>3695231535</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:36</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44146.45736111111</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37662,10 +36650,8 @@
           <t>3695222641</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:26</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44146.45724537037</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37729,10 +36715,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:23</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44146.45721064815</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37800,10 +36784,8 @@
           <t>3695231235</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:14</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44146.45710648148</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37875,10 +36857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:10</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44146.45706018519</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37954,10 +36934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:09</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44146.45704861111</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38025,10 +37003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:09</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44146.45704861111</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38096,10 +37072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:09</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44146.45704861111</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38167,10 +37141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:02</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44146.4569675926</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38234,10 +37206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:02</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44146.4569675926</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38309,10 +37279,8 @@
           <t>3695226270</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:58:00</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44146.45694444444</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38384,10 +37352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:59</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44146.45693287037</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38459,10 +37425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:56</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44146.45689814815</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38538,10 +37502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:56</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44146.45689814815</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38617,10 +37579,8 @@
           <t>3695226187</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:55</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44146.45688657407</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38692,10 +37652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:54</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44146.456875</v>
       </c>
       <c r="I530" t="n">
         <v>19</v>
@@ -38767,10 +37725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:54</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44146.456875</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38842,10 +37798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:52</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44146.45685185185</v>
       </c>
       <c r="I532" t="n">
         <v>187</v>
@@ -38913,10 +37867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:48</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44146.45680555556</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38976,10 +37928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:47</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44146.45679398148</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39051,10 +38001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:44</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44146.45675925926</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39118,10 +38066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:39</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44146.45670138889</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39197,10 +38143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:38</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44146.45668981481</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39276,10 +38220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:38</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44146.45668981481</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39355,10 +38297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:37</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44146.45667824074</v>
       </c>
       <c r="I539" t="n">
         <v>10</v>
@@ -39434,10 +38374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:36</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44146.45666666667</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39513,10 +38451,8 @@
           <t>3695221897</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:35</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44146.4566550926</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39584,10 +38520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:29</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44146.45658564815</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39663,10 +38597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:29</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44146.45658564815</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39730,10 +38662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:28</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44146.45657407407</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -39801,10 +38731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:16</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44146.45643518519</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39872,10 +38800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:15</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44146.45642361111</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39951,10 +38877,8 @@
           <t>3695225639</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:14</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44146.45641203703</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40022,10 +38946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:12</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44146.45638888889</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40093,10 +39015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:12</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44146.45638888889</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40168,10 +39088,8 @@
           <t>3695221628</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:12</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44146.45638888889</v>
       </c>
       <c r="I550" t="n">
         <v>12</v>
@@ -40239,10 +39157,8 @@
           <t>3695221610</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:11</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44146.45637731482</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40306,10 +39222,8 @@
           <t>3695220699</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44146.45636574074</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40381,10 +39295,8 @@
           <t>3695220699</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:08</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44146.4563425926</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40456,10 +39368,8 @@
           <t>3695214415</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:06</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44146.45631944444</v>
       </c>
       <c r="I554" t="n">
         <v>24</v>
@@ -40535,10 +39445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:03</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44146.45628472222</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40599,10 +39507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:03</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44146.45628472222</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40674,10 +39580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:01</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44146.45626157407</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40746,10 +39650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:57:00</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44146.45625</v>
       </c>
       <c r="I558" t="n">
         <v>80</v>
@@ -40825,10 +39727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:56</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44146.4562037037</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -40896,10 +39796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:55</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44146.45619212963</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40975,10 +39873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:46</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44146.45608796296</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41056,10 +39952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:45</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44146.45607638889</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41128,10 +40022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:42</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44146.45604166666</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41207,10 +40099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:41</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44146.4560300926</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41286,10 +40176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:41</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44146.4560300926</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41361,10 +40249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:41</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44146.4560300926</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41440,10 +40326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:39</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44146.45600694444</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41507,10 +40391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:38</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44146.45599537037</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41578,10 +40460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:36</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44146.45597222223</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41641,10 +40521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:36</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44146.45597222223</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41712,10 +40590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:35</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44146.45596064815</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41779,10 +40655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:33</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44146.4559375</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -41854,10 +40728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:31</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44146.45591435185</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -41921,10 +40793,8 @@
           <t>3695225077</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:30</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44146.45590277778</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -41996,10 +40866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:24</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44146.45583333333</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42067,10 +40935,8 @@
           <t>3695220699</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:23</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44146.45582175926</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42142,10 +41008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:22</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44146.45581018519</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42223,10 +41087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:21</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44146.45579861111</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42290,10 +41152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:18</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44146.45576388889</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42369,10 +41229,8 @@
           <t>3695219901</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:15</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44146.45572916666</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42444,10 +41302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:14</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44146.45571759259</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42519,10 +41375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:14</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44146.45571759259</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42594,10 +41448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:13</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44146.45570601852</v>
       </c>
       <c r="I583" t="n">
         <v>318</v>
@@ -42665,10 +41517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:13</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44146.45570601852</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42744,10 +41594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:10</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44146.45567129629</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42815,10 +41663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:08</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44146.45564814815</v>
       </c>
       <c r="I586" t="n">
         <v>39</v>
@@ -42890,10 +41736,8 @@
           <t>3695219798</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:06</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44146.455625</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42965,10 +41809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:04</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44146.45560185185</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43040,10 +41882,8 @@
           <t>3695214581</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:04</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44146.45560185185</v>
       </c>
       <c r="I589" t="n">
         <v>22</v>
@@ -43107,10 +41947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:03</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44146.45559027778</v>
       </c>
       <c r="I590" t="n">
         <v>7</v>
@@ -43186,10 +42024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:56:02</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44146.4555787037</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43257,10 +42093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:57</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44146.45552083333</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43336,10 +42170,8 @@
           <t>3695220648</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:56</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44146.45550925926</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43415,10 +42247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:55</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44146.45549768519</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43490,10 +42320,8 @@
           <t>3695219649</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:54</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44146.45548611111</v>
       </c>
       <c r="I595" t="n">
         <v>5</v>
@@ -43565,10 +42393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:53</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44146.45547453704</v>
       </c>
       <c r="I596" t="n">
         <v>61</v>
@@ -43644,10 +42470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:52</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44146.45546296296</v>
       </c>
       <c r="I597" t="n">
         <v>2</v>
@@ -43719,10 +42543,8 @@
           <t>3695214415</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:49</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44146.45542824074</v>
       </c>
       <c r="I598" t="n">
         <v>18</v>
@@ -43786,10 +42608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:48</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44146.45541666666</v>
       </c>
       <c r="I599" t="n">
         <v>54</v>
@@ -43865,10 +42685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:44</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44146.45537037037</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -43932,10 +42750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:43</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44146.45535879629</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -43999,10 +42815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:41</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44146.45533564815</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44078,10 +42892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:35</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44146.4552662037</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44157,10 +42969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:35</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44146.4552662037</v>
       </c>
       <c r="I604" t="n">
         <v>17</v>
@@ -44228,10 +43038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:30</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44146.45520833333</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44295,10 +43103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:29</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44146.45519675926</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44374,10 +43180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:25</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44146.45515046296</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44453,10 +43257,8 @@
           <t>3695219262</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:25</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44146.45515046296</v>
       </c>
       <c r="I608" t="n">
         <v>60</v>
@@ -44528,10 +43330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:22</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44146.45511574074</v>
       </c>
       <c r="I609" t="n">
         <v>3</v>
@@ -44603,10 +43403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:22</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44146.45511574074</v>
       </c>
       <c r="I610" t="n">
         <v>11</v>
@@ -44682,10 +43480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:21</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44146.45510416666</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44757,10 +43553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:21</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44146.45510416666</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44832,10 +43626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:18</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44146.45506944445</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -44907,10 +43699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:17</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44146.45505787037</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44982,10 +43772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:17</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44146.45505787037</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45061,10 +43849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:12</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44146.455</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45124,10 +43910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:05</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44146.45491898148</v>
       </c>
       <c r="I617" t="n">
         <v>3</v>
@@ -45199,10 +43983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:55:00</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44146.45486111111</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45278,10 +44060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:58</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44146.45483796296</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45353,10 +44133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:57</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44146.45482638889</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45420,10 +44198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:55</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44146.45480324074</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45495,10 +44271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:52</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44146.45476851852</v>
       </c>
       <c r="I622" t="n">
         <v>33</v>
@@ -45574,10 +44348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:51</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44146.45475694445</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45653,10 +44425,8 @@
           <t>3695209802</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:49</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44146.45473379629</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -45728,10 +44498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:48</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44146.45472222222</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45803,10 +44571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:43</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44146.45466435186</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45883,10 +44649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:40</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44146.45462962963</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -45958,10 +44722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:39</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44146.45461805556</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46037,10 +44799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:38</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44146.45460648148</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46108,10 +44868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:35</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44146.45457175926</v>
       </c>
       <c r="I630" t="n">
         <v>3</v>
@@ -46183,10 +44941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:33</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44146.45454861111</v>
       </c>
       <c r="I631" t="n">
         <v>444</v>
@@ -46262,10 +45018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:32</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44146.45453703704</v>
       </c>
       <c r="I632" t="n">
         <v>21</v>
@@ -46337,10 +45091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:31</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44146.45452546296</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46409,10 +45161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:25</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44146.45445601852</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46484,10 +45234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:24</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44146.45444444445</v>
       </c>
       <c r="I635" t="n">
         <v>108</v>
@@ -46563,10 +45311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:22</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44146.45442129629</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46630,10 +45376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:22</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44146.45442129629</v>
       </c>
       <c r="I637" t="n">
         <v>4</v>
@@ -46706,10 +45450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:21</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44146.45440972222</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46769,10 +45511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:19</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44146.45438657407</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46840,10 +45580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:18</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44146.454375</v>
       </c>
       <c r="I640" t="n">
         <v>3</v>
@@ -46919,10 +45657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:14</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44146.4543287037</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -46998,10 +45734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:13</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44146.45431712963</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
@@ -47061,10 +45795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:10</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44146.45428240741</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47140,10 +45872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:10</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44146.45428240741</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47221,10 +45951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:10</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44146.45428240741</v>
       </c>
       <c r="I645" t="n">
         <v>326</v>
@@ -47300,10 +46028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:10</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44146.45428240741</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47367,10 +46093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:06</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44146.45423611111</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47434,10 +46158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:04</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44146.45421296296</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47505,10 +46227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:01</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44146.45417824074</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47576,10 +46296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:54:01</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44146.45417824074</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47647,10 +46365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:59</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44146.45415509259</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47718,10 +46434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:59</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44146.45415509259</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -47793,10 +46507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:58</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44146.45414351852</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -47878,10 +46590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:57</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44146.45413194445</v>
       </c>
       <c r="I654" t="n">
         <v>10</v>
@@ -47941,10 +46651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:57</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44146.45413194445</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48020,10 +46728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:57</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44146.45413194445</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48091,10 +46797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:55</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44146.45410879629</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48170,10 +46874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:55</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44146.45410879629</v>
       </c>
       <c r="I658" t="n">
         <v>8</v>
@@ -48249,10 +46951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:54</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44146.45409722222</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -48320,10 +47020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:54</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44146.45409722222</v>
       </c>
       <c r="I660" t="n">
         <v>846</v>
@@ -48391,10 +47089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:53</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44146.45408564815</v>
       </c>
       <c r="I661" t="n">
         <v>71</v>
@@ -48470,10 +47166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:52</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44146.45407407408</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48541,10 +47235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:52</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44146.45407407408</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48612,10 +47304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:52</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44146.45407407408</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -48683,10 +47373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:50</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44146.45405092592</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48754,10 +47442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:47</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44146.4540162037</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48829,10 +47515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:46</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44146.45400462963</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -48908,10 +47592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:46</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44146.45400462963</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -48979,10 +47661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:45</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44146.45399305555</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49054,10 +47734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:45</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44146.45399305555</v>
       </c>
       <c r="I670" t="n">
         <v>19</v>
@@ -49125,10 +47803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:43</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44146.45396990741</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49204,10 +47880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:40</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44146.45393518519</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49275,10 +47949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-11-11 10:53:35</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44146.45387731482</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
